--- a/Desafios Excel/Organizador de Imposto de Renda/Imposto_Renda_Organizador.xlsx
+++ b/Desafios Excel/Organizador de Imposto de Renda/Imposto_Renda_Organizador.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\dio\Desafios de projeto\desafios-de-projeto-DIO\Desafios Excel\Organizador de Imposto de Renda\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91358002-838E-4BCA-A474-F9FAC33B5623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E141236E-7D2D-4CA0-97F9-8D495720C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="89" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="89" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="11" r:id="rId1"/>
@@ -171,12 +171,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
-    <numFmt numFmtId="169" formatCode="00000\-000"/>
-    <numFmt numFmtId="170" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
-    <numFmt numFmtId="171" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
-    <numFmt numFmtId="172" formatCode="&quot;R$&quot;\ #,##0.00"/>
-    <numFmt numFmtId="173" formatCode="mmmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="000&quot;.&quot;000&quot;.&quot;000&quot;-&quot;00"/>
+    <numFmt numFmtId="165" formatCode="00000\-000"/>
+    <numFmt numFmtId="166" formatCode="&quot;(&quot;00&quot;) &quot;0000&quot;-&quot;0000"/>
+    <numFmt numFmtId="167" formatCode="&quot;(&quot;00&quot;) &quot;00000&quot;-&quot;0000"/>
+    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="169" formatCode="mmmm\-yyyy"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -430,7 +430,7 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -438,15 +438,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="171" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -454,27 +454,15 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="172" fontId="8" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -482,11 +470,11 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="173" fontId="12" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="12" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -494,7 +482,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -506,7 +494,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="172" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -521,26 +509,6 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="172" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -552,13 +520,45 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="168" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="12" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3320,7 +3320,7 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A4:E20"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3340,11 +3340,11 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
     </row>
     <row r="7" spans="3:5" ht="16.8" x14ac:dyDescent="0.4">
       <c r="C7" s="4" t="s">
@@ -3478,7 +3478,7 @@
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A3:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+    <sheetView zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -3488,8 +3488,8 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.21875" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="32" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="28" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="27" customWidth="1"/>
     <col min="8" max="8" width="41.21875" customWidth="1"/>
     <col min="9" max="9" width="45.44140625" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
@@ -3501,345 +3501,345 @@
         <v>23</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="33"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4" spans="3:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="34"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="35"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="31"/>
     </row>
     <row r="9" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="H9" s="17" t="s">
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="H9" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="3:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="36" t="s">
+      <c r="E10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="J10" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="14" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20">
         <v>400</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>39912</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24">
+      <c r="H11" s="18"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20">
         <v>400</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="18"/>
     </row>
     <row r="12" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="25"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="28"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="24"/>
     </row>
     <row r="14" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="25"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="28"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="24"/>
     </row>
     <row r="16" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="25"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="28"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="21"/>
     </row>
     <row r="19" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="28"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="25"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="21"/>
     </row>
     <row r="21" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="28"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="25"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="28"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="24"/>
     </row>
     <row r="24" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="28"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="25"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="28"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="27"/>
-      <c r="K28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="28"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-      <c r="K30" s="25"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="21"/>
     </row>
     <row r="31" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="28"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="24"/>
     </row>
     <row r="32" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="25"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C33" s="28"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="24"/>
     </row>
     <row r="34" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="25"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="25"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="21"/>
     </row>
     <row r="35" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C35" s="28"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="24"/>
     </row>
     <row r="36" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="37"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="33"/>
     </row>
     <row r="37" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" spans="3:11" ht="15" x14ac:dyDescent="0.35">
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="36"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="32"/>
     </row>
     <row r="39" spans="3:11" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C39" s="19"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -3869,7 +3869,7 @@
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.21875" customWidth="1"/>
     <col min="4" max="4" width="45.44140625" customWidth="1"/>
-    <col min="5" max="5" width="21" style="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21" style="36" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3878,210 +3878,210 @@
         <v>39</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="31"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="3:6" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="31"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="31"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F6" s="31"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="31"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F8" s="31"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
     </row>
     <row r="10" spans="3:6" ht="15" x14ac:dyDescent="0.35">
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="14" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="45">
+      <c r="C11" s="18"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="41">
         <v>12312312398</v>
       </c>
-      <c r="F11" s="22">
+      <c r="F11" s="18">
         <v>39912</v>
       </c>
     </row>
     <row r="12" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C13" s="28"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C15" s="28"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="24"/>
     </row>
     <row r="16" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="25"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C17" s="28"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="25"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C19" s="28"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C21" s="28"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="24"/>
     </row>
     <row r="22" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="25"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C23" s="28"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="24"/>
     </row>
     <row r="24" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="25"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C25" s="28"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C26" s="25"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="25"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C27" s="28"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C29" s="28"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="24"/>
     </row>
     <row r="30" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C31" s="28"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C32" s="25"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="25"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C33" s="28"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="45"/>
-      <c r="F33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C34" s="25"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="25"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="3:6" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="C35" s="28"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="24"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
@@ -4099,7 +4099,7 @@
   <sheetPr codeName="Planilha4"/>
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4120,11 +4120,11 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="3:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
@@ -4132,14 +4132,14 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C6" s="13">
+      <c r="C6" s="45">
         <f>D10 - D14 - D18 - D22</f>
         <v>844</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="12">
         <v>12321</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="13" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4172,12 +4172,12 @@
       <c r="C14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="12">
         <v>9000</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="13" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4191,12 +4191,12 @@
       <c r="C18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="12">
         <v>43</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="12">
         <v>2434</v>
       </c>
     </row>
